--- a/mfa/S_cerevisiae/run_files/Nlim__D_0_08/scGEM_Nlim__D_0_08_completeMFA.xlsx
+++ b/mfa/S_cerevisiae/run_files/Nlim__D_0_08/scGEM_Nlim__D_0_08_completeMFA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Reactions" sheetId="1" state="visible" r:id="rId2"/>
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">Biomass reaction for S. cerevisiae</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348464 ala__L_c + 0.137673 arg__L_c + 0.165493 asn__L_c + 0.165493 asp__L_c + 0.004993 cys__L_c + 0.276060 gln__L_c + 0.276060 glu__L_c + 0.317077 gly_c + 0.068837 his__L_c + 0.210077 ile__L_c + 0.285690 leu__L_c + 0.234330 lys__L_c + 0.040660 met__L_c + 0.134107 phe__L_c + 0.150513 pro__L_c + 0.190103 ser__L_c + 0.198663 thr__L_c + 0.023183 trp__L_c + 0.069907 tyr__L_c + 0.261437 val__L_c + 0.741186 mannan_c + 1.150162 13BDglucan_c + 0.302674 16BDglucan_c + 0.027193 chtn_c + 0.554510 glycogen_c + 0.027795 tre_c + 0.004414 ergstest_c + 0.017242 ergst_c + 0.004482 pail_c + 0.016723 pc_c + 0.004494 pe_c + 0.003860 ps_c + 0.004447 tag_c + 0.002494 ipcbiom_c + 0.000960 ffabiom_c + 0.031883 ctp_c + 0.032810 gtp_c + 0.042725 utp_c + 0.003784 datp_c + 0.002554 dctp_c + 0.002554 dgtp_c + 0.003784 dttp_c + 0.001286 ca2_c + 0.000114 cu2_c + 0.000664 fe2_c + 0.603650 k_c + 0.063607 mg2_c + 0.000094 mn2_c + 0.001576 zn2_c + 0.031223 so4_c + 101.776487 atp_c + 94.626031 h2o_c --&gt; 3.558823 amp_c + 98.184854 adp_c + 98.184854 h_c + 98.079199 pi_c + 3.711729 ppi_c</t>
+    <t xml:space="preserve">0.348464 ala__L_c + 0.137673 arg__L_c + 0.165493 asn__L_c + 0.165493 asp__L_c + 0.004993 cys__L_c + 0.276060 gln__L_c + 0.276060 glu__L_c + 0.317077 gly_c + 0.068837 his__L_c + 0.210077 ile__L_c + 0.285690 leu__L_c + 0.234330 lys__L_c + 0.040660 met__L_c + 0.134107 phe__L_c + 0.150513 pro__L_c + 0.190103 ser__L_c + 0.198663 thr__L_c + 0.023183 trp__L_c + 0.069907 tyr__L_c + 0.261437 val__L_c + 0.741186 mannan_c + 1.150162 13BDglucan_c + 0.302674 16BDglucan_c + 0.027193 chtn_c + 0.554510 glycogen_c + 0.027795 tre_c + 0.004414 ergstest_c + 0.017242 ergst_c + 0.004482 pail_c + 0.016723 pc_c + 0.004494 pe_c + 0.003860 ps_c + 0.004447 tag_c + 0.002494 ipcbiom_c + 0.000960 ffabiom_c + 0.031883 ctp_c + 0.032810 gtp_c + 0.042725 utp_c + 0.003784 datp_c + 0.002554 dctp_c + 0.002554 dgtp_c + 0.003784 dttp_c + 0.001286 ca2_c + 0.000114 cu2_c + 0.000664 fe2_c + 0.603650 k_c + 0.063607 mg2_c + 0.000094 mn2_c + 0.001576 zn2_c + 0.031223 so4_c + 143.054575 atp_c + 135.904119 h2o_c --&gt; 3.558823 amp_c + 139.462942 adp_c + 139.462942 h_c + 139.357287 pi_c + 3.711729 ppi_c</t>
   </si>
   <si>
     <t xml:space="preserve">Pseudoreaction</t>
@@ -14849,10 +14849,10 @@
   </sheetPr>
   <dimension ref="A1:N591"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A560" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A591" activeCellId="0" sqref="A591"/>
+      <selection pane="bottomLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34197,7 +34197,7 @@
   </sheetPr>
   <dimension ref="A1:L492"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A492" activeCellId="0" sqref="A492"/>
